--- a/modelagem/Resultados_2018 1ª abordagem/7. Julho/resultados.xlsx
+++ b/modelagem/Resultados_2018 1ª abordagem/7. Julho/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,887 +436,720 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Modelo Individual Treino</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>ativos</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Modelo Individual Teste</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo por grupos Teste</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo com a Média Teste</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0.1419427617672459</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>ABEV3</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>315732030246758.1</v>
-      </c>
       <c r="C2" t="n">
-        <v>162361571358218.5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>838997139881773.1</v>
+        <v>0.08075237403261334</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0.2048083931003256</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>B3SA3</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.5823293003436996</v>
-      </c>
       <c r="C3" t="n">
-        <v>0.6362807739310338</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.745925961147518</v>
+        <v>0.1768548042844974</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0.2883308952301582</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>BBAS3</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1.40977610345346</v>
-      </c>
       <c r="C4" t="n">
-        <v>1.287051477479335</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.584296258724405</v>
+        <v>0.08546269553138601</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>0.2243259526768105</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>BBDC3</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>5.782677773558689</v>
-      </c>
       <c r="C5" t="n">
-        <v>6.112257353038518</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.28462006391672</v>
+        <v>0.1916929619574311</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>0.1879510504029522</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>BBDC4</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1.510443251669513</v>
-      </c>
       <c r="C6" t="n">
-        <v>0.8689201340042151</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.297997322463413</v>
+        <v>0.134720001267261</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>0.16199046110162</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>BEEF3</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1.651368623966245</v>
-      </c>
       <c r="C7" t="n">
-        <v>0.8813980028550638</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.486415242561256</v>
+        <v>0.1567339452562117</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>0.05382389186070458</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>BRAP4</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2.573214749848342</v>
-      </c>
       <c r="C8" t="n">
-        <v>2.886631536617446</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.622329560236451</v>
+        <v>0.106205979712482</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>0.2468992999432295</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>BRFS3</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.3419183345002453</v>
-      </c>
       <c r="C9" t="n">
-        <v>0.2224033896896076</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.3694931139271052</v>
+        <v>0.1615679169180991</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>0.1278300197977891</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>BRKM5</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1.384876362364906</v>
-      </c>
       <c r="C10" t="n">
-        <v>1.218502912881987</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.958827031435331</v>
+        <v>0.03477843950545866</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>0.1669342387515015</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>CCRO3</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.737670492568487</v>
-      </c>
       <c r="C11" t="n">
-        <v>0.6558242521622319</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7921193400198355</v>
+        <v>0.1723498639784837</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>0.2266828586969669</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>CIEL3</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>12.46981586677443</v>
-      </c>
       <c r="C12" t="n">
-        <v>6.910011593836125</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4.481837351004799</v>
+        <v>0.03235359618193239</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>0.1970410825795586</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>CMIG4</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>1.778026134565826</v>
-      </c>
       <c r="C13" t="n">
-        <v>0.700247017436801</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.8085278297681691</v>
+        <v>0.150742937535131</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>0.2592136411437456</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>CPFE3</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.5548461787334363</v>
-      </c>
       <c r="C14" t="n">
-        <v>0.4283124369787344</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.6712725291622246</v>
+        <v>0.1409044040341677</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>0.166509483670296</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>CPLE6</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>1.665591734505645</v>
-      </c>
       <c r="C15" t="n">
-        <v>1.60038298692867</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.7460169714425603</v>
+        <v>0.1447885762892485</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>0.1695913377939266</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>CSAN3</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>1.215073465242462</v>
-      </c>
       <c r="C16" t="n">
-        <v>0.7321513136573415</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.496650138122449</v>
+        <v>0.1490538798392916</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>0.2634793747224723</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>CSNA3</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.9395619491293616</v>
-      </c>
       <c r="C17" t="n">
-        <v>0.8680941852049971</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.9997442614866578</v>
+        <v>0.1580312415479293</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>0.1704522493615885</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>CYRE3</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0.5553444390619953</v>
-      </c>
       <c r="C18" t="n">
-        <v>0.2917380141090405</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.5788045122835398</v>
+        <v>0.1690266928560823</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>0.3161459513656608</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>EGIE3</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0.805283101846571</v>
-      </c>
       <c r="C19" t="n">
-        <v>1.136604006067103</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.362667719338539</v>
+        <v>0.2017061534171303</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>0.2483248126345014</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>ELET3</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>2.048197904033771</v>
-      </c>
       <c r="C20" t="n">
-        <v>2.134631866240654</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.261061673837657</v>
+        <v>0.1929534962414969</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>0.234030514687753</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>ELET6</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0.8650155476365097</v>
-      </c>
       <c r="C21" t="n">
-        <v>0.8000059512374814</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.6000376505737879</v>
+        <v>0.180351455107703</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>0.03073567086945529</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>EMBR3</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0.9509821885577575</v>
-      </c>
       <c r="C22" t="n">
-        <v>1.155897118373981</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.048981272175395</v>
+        <v>0.05797094935051151</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>0.2750460185572445</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>ENBR3</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>6.925357769234032</v>
-      </c>
       <c r="C23" t="n">
-        <v>19.03427657517868</v>
-      </c>
-      <c r="D23" t="n">
-        <v>8.403632505364678</v>
+        <v>0.2033745959033687</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>0.1992394641760818</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>ENEV3</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0.5741717667043695</v>
-      </c>
       <c r="C24" t="n">
-        <v>0.3420758095734021</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.3250219807702968</v>
+        <v>0.06756839022884416</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>0.33359316819331</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>ENGI11</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0.8502459280400902</v>
-      </c>
       <c r="C25" t="n">
-        <v>0.7911274799225979</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.4882721424623444</v>
+        <v>0.1840333156976585</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>0.16629235796405</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>EQTL3</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>1.273834537614895</v>
-      </c>
       <c r="C26" t="n">
-        <v>0.94096489268743</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9831069838646321</v>
+        <v>0.1601066481603075</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>0.2517119712788431</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>EZTC3</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0.5470937107806351</v>
-      </c>
       <c r="C27" t="n">
-        <v>0.5986175738096244</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.3496815514554178</v>
+        <v>0.2301555084833868</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>0.06424045817575294</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>FLRY3</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>0.3364963775297222</v>
-      </c>
       <c r="C28" t="n">
-        <v>0.2916367697891171</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.3217569129910101</v>
+        <v>0.04931519488228184</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>0.1182905553009316</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>GGBR4</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0.9712058638192762</v>
-      </c>
       <c r="C29" t="n">
-        <v>0.8062973487419705</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.307939832620319</v>
+        <v>0.02705605753993678</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>0.0557604230730491</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>GOAU4</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>1.047107637891567</v>
-      </c>
       <c r="C30" t="n">
-        <v>1.153992433273937</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.301153386050236</v>
+        <v>0.01157701147344384</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>0.2268201588431907</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>GOLL4</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>0.4815173932229564</v>
-      </c>
       <c r="C31" t="n">
-        <v>0.3366225697350534</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.4174174486640822</v>
+        <v>0.1776540333313318</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>0.1409932609689554</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>HYPE3</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>121741189255774.7</v>
-      </c>
       <c r="C32" t="n">
-        <v>127419335052350.5</v>
-      </c>
-      <c r="D32" t="n">
-        <v>31582406580691.52</v>
+        <v>0.07370153703233587</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>0.1532241998651414</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>ITSA4</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>0.9400943385398989</v>
-      </c>
       <c r="C33" t="n">
-        <v>0.9990509180837247</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.065695710832904</v>
+        <v>0.05591155507777774</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>0.1583553968000731</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>ITUB4</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>1.46648368457858</v>
-      </c>
       <c r="C34" t="n">
-        <v>3.531718277739558</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2.647336888829292</v>
+        <v>0.1421765187881769</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>0.3284322796962125</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>JBSS3</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>0.6325046788738892</v>
-      </c>
       <c r="C35" t="n">
-        <v>0.6594569044366387</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.5645864443924636</v>
+        <v>0.2022315273279079</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>0.1889063236527561</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>JHSF3</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>0.3802674398719436</v>
-      </c>
       <c r="C36" t="n">
-        <v>0.6041341011706587</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.7488063163257226</v>
+        <v>0.1355859442547874</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>0.2928339491397336</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>LREN3</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>2.48178572341083</v>
-      </c>
       <c r="C37" t="n">
-        <v>1.780221071023806</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2.420705215036898</v>
+        <v>0.2164735373317215</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>0.1129178336393936</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>MRFG3</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>3.030772733660897</v>
-      </c>
       <c r="C38" t="n">
-        <v>1.615599765271327</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2.155824583142373</v>
+        <v>0.08929645816367894</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>0.1660288171071225</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>MRVE3</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>1.766024735390294</v>
-      </c>
       <c r="C39" t="n">
-        <v>2.593500307245852</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2.85464677376123</v>
+        <v>0.1502371334387506</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>0.2546320603781249</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>MULT3</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>1.33220971546019</v>
-      </c>
       <c r="C40" t="n">
-        <v>0.7186036306058076</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.7374271855752997</v>
+        <v>0.197083944967967</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>0.1217986146529139</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>PETR3</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>3.081232647498605</v>
-      </c>
       <c r="C41" t="n">
-        <v>1.046483270661941</v>
-      </c>
-      <c r="D41" t="n">
-        <v>3.653599241669451</v>
+        <v>0.1420933734098438</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>0.2221415392067658</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>PETR4</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>1.279614774838236</v>
-      </c>
       <c r="C42" t="n">
-        <v>0.8786222629780187</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1.563771077345642</v>
+        <v>0.1917334429454744</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>0.1343555266733613</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>RADL3</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>0.7765470199403225</v>
-      </c>
       <c r="C43" t="n">
-        <v>1.029800571365385</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.6029217827326132</v>
+        <v>0.141712805134619</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>0.341939860973878</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>RENT3</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>0.4295196387340375</v>
-      </c>
       <c r="C44" t="n">
-        <v>0.3873665817856128</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.4813712028480277</v>
+        <v>0.06642213145932081</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>0.2146988775040732</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>SANB11</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>2.680412189864803</v>
-      </c>
       <c r="C45" t="n">
-        <v>0.8061165662416694</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2.08234571643504</v>
+        <v>0.1519394006258094</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>0.2106349923929024</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>SBSP3</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>1.457371176267337</v>
-      </c>
       <c r="C46" t="n">
-        <v>0.6527718829545081</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2.003342258389745</v>
+        <v>0.2061529804408037</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>0.2317894499673803</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>TAEE11</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>0.8704564143851209</v>
-      </c>
       <c r="C47" t="n">
-        <v>0.748215855915397</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.059433691727872</v>
+        <v>0.1665200880870461</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>0.03648730104118125</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>TIMS3</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>0.7209856810660473</v>
-      </c>
       <c r="C48" t="n">
-        <v>0.5004407477254122</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.4484700028061859</v>
+        <v>0.07387481170773832</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>0.2064098923260201</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>TOTS3</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>0.7845266976943392</v>
-      </c>
       <c r="C49" t="n">
-        <v>0.6388657986105192</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.9992466925114581</v>
+        <v>0.175488612762389</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>0.1596361879340043</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>UGPA3</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>1.016777251583203</v>
-      </c>
       <c r="C50" t="n">
-        <v>1.206918019765937</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1.173556866043272</v>
+        <v>0.02852610790548934</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>0.08630460683045266</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>USIM5</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>2.476643008592978</v>
-      </c>
       <c r="C51" t="n">
-        <v>1.025814441153451</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1.177739581967926</v>
+        <v>0.05817124011693302</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>0.1402852986832847</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>VALE3</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>2.219941113927527</v>
-      </c>
       <c r="C52" t="n">
-        <v>1.352205939291775</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2.448559565816803</v>
+        <v>0.04216009784713531</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>0.08581088459269653</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>VIVT3</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>1.624650476054734</v>
-      </c>
       <c r="C53" t="n">
-        <v>1.099589706782388</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.862731120341045</v>
+        <v>0.1960097083971221</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>0.1407003154787516</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>WEGE3</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>0.8572183730529801</v>
-      </c>
       <c r="C54" t="n">
-        <v>0.6477135105467898</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.7475448230471929</v>
+        <v>0.1610811490657889</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>0.2336233069719443</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>YDUQ3</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>1.109111009303262</v>
-      </c>
       <c r="C55" t="n">
-        <v>0.6457804826430205</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.187576418506465</v>
+        <v>0.1438396320718525</v>
       </c>
     </row>
   </sheetData>
